--- a/pictures/StylePictureMapping.xlsx
+++ b/pictures/StylePictureMapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10801101_polimi_it/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Documents\GitHub\CPAC_CollectiveDynamicPortrait\pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{53E8D5D4-3E57-4315-B374-25AB3CB48E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86C1DA87-98E7-4B15-9D63-75ECF0225788}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3355D420-FFD6-4E99-B56F-5600AD4F51BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" xr2:uid="{56D1ED23-434A-4389-89B3-0D5C0B319098}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{56D1ED23-434A-4389-89B3-0D5C0B319098}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="31">
   <si>
     <t>Acousticness</t>
   </si>
@@ -115,6 +115,18 @@
   </si>
   <si>
     <t>minecraft</t>
+  </si>
+  <si>
+    <t>Acousticness --&gt; painting technique</t>
+  </si>
+  <si>
+    <t>Valence --&gt; colors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">energy --&gt; bold/sharp edges </t>
+  </si>
+  <si>
+    <t>speechiness --&gt; abstract subject?</t>
   </si>
 </sst>
 </file>
@@ -488,15 +500,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F59917-EEA1-405D-A7A8-79ABB55BBBEA}">
-  <dimension ref="B2:H71"/>
+  <dimension ref="B2:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56:H59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -507,8 +519,11 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
@@ -516,8 +531,11 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
@@ -525,8 +543,11 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
@@ -534,8 +555,11 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-    </row>
-    <row r="7" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -543,7 +567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -557,7 +581,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -569,7 +593,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>2</v>
       </c>
@@ -581,7 +605,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -593,7 +617,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>0</v>
       </c>
@@ -607,7 +631,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>1</v>
       </c>
@@ -619,7 +643,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>2</v>
       </c>
@@ -631,7 +655,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
@@ -643,7 +667,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>0</v>
       </c>
@@ -657,7 +681,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>1</v>
       </c>
@@ -669,7 +693,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>2</v>
       </c>
@@ -681,7 +705,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
@@ -693,7 +717,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>0</v>
       </c>
@@ -707,7 +731,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -719,7 +743,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>2</v>
       </c>
@@ -731,7 +755,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
@@ -743,7 +767,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>0</v>
       </c>
@@ -757,7 +781,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>1</v>
       </c>
@@ -769,7 +793,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>2</v>
       </c>
@@ -781,7 +805,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>3</v>
       </c>
@@ -793,7 +817,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>0</v>
       </c>
@@ -807,7 +831,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>1</v>
       </c>
@@ -819,7 +843,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>2</v>
       </c>
@@ -831,7 +855,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>3</v>
       </c>
@@ -843,7 +867,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>0</v>
       </c>
@@ -857,7 +881,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>1</v>
       </c>
@@ -869,7 +893,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>2</v>
       </c>
@@ -881,7 +905,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>3</v>
       </c>
@@ -893,7 +917,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>0</v>
       </c>
@@ -907,7 +931,7 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>1</v>
       </c>
@@ -919,7 +943,7 @@
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>2</v>
       </c>
@@ -931,7 +955,7 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>3</v>
       </c>
@@ -943,7 +967,7 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>0</v>
       </c>
@@ -957,7 +981,7 @@
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>1</v>
       </c>
@@ -969,7 +993,7 @@
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>2</v>
       </c>
@@ -981,7 +1005,7 @@
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
         <v>3</v>
       </c>
@@ -993,7 +1017,7 @@
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>0</v>
       </c>
@@ -1007,7 +1031,7 @@
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>1</v>
       </c>
@@ -1019,7 +1043,7 @@
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>2</v>
       </c>
@@ -1031,7 +1055,7 @@
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
         <v>3</v>
       </c>
@@ -1043,7 +1067,7 @@
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>0</v>
       </c>
@@ -1057,7 +1081,7 @@
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>1</v>
       </c>
@@ -1069,7 +1093,7 @@
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>2</v>
       </c>
@@ -1081,7 +1105,7 @@
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>3</v>
       </c>
@@ -1093,7 +1117,7 @@
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>0</v>
       </c>
@@ -1107,7 +1131,7 @@
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>1</v>
       </c>
@@ -1119,7 +1143,7 @@
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>2</v>
       </c>
@@ -1131,7 +1155,7 @@
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
         <v>3</v>
       </c>
@@ -1143,7 +1167,7 @@
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>0</v>
       </c>
@@ -1157,7 +1181,7 @@
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>1</v>
       </c>
@@ -1169,7 +1193,7 @@
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>2</v>
       </c>
@@ -1181,7 +1205,7 @@
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
     </row>
-    <row r="59" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
         <v>3</v>
       </c>
@@ -1193,7 +1217,7 @@
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>0</v>
       </c>
@@ -1207,7 +1231,7 @@
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>1</v>
       </c>
@@ -1219,7 +1243,7 @@
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>2</v>
       </c>
@@ -1231,7 +1255,7 @@
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
     </row>
-    <row r="63" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
         <v>3</v>
       </c>
@@ -1243,7 +1267,7 @@
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>0</v>
       </c>
@@ -1257,7 +1281,7 @@
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>1</v>
       </c>
@@ -1269,7 +1293,7 @@
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>2</v>
       </c>
@@ -1281,7 +1305,7 @@
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
     </row>
-    <row r="67" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
         <v>3</v>
       </c>
@@ -1293,7 +1317,7 @@
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>0</v>
       </c>
@@ -1307,7 +1331,7 @@
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>1</v>
       </c>
@@ -1319,7 +1343,7 @@
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>2</v>
       </c>
@@ -1331,7 +1355,7 @@
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
     </row>
-    <row r="71" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B71" s="1" t="s">
         <v>3</v>
       </c>
@@ -1345,11 +1369,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E24:H27"/>
-    <mergeCell ref="E28:H31"/>
-    <mergeCell ref="E56:H59"/>
-    <mergeCell ref="E60:H63"/>
-    <mergeCell ref="E64:H67"/>
     <mergeCell ref="E68:H71"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C5:G5"/>
@@ -1363,6 +1382,11 @@
     <mergeCell ref="E12:H15"/>
     <mergeCell ref="E16:H19"/>
     <mergeCell ref="E20:H23"/>
+    <mergeCell ref="E24:H27"/>
+    <mergeCell ref="E28:H31"/>
+    <mergeCell ref="E56:H59"/>
+    <mergeCell ref="E60:H63"/>
+    <mergeCell ref="E64:H67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
